--- a/Supplementary Table 4.xlsx
+++ b/Supplementary Table 4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27921"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\waccache\SG2PEPF000DE578\EXCELCNV\ab77538b-e3a7-4a23-a8a5-f829c191e560\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{497441C2-5D88-4007-B29E-B8813DC06C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB99C83C-B740-4707-831F-979D8875CA10}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{497441C2-5D88-4007-B29E-B8813DC06C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBD836D4-728D-4712-8FA7-A9708827450C}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{6E48AC00-B657-418D-91C7-3B68D95367D3}"/>
   </bookViews>
@@ -36,7 +36,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+  <si>
+    <t>The frequency of “climate change search terms (stemmed words)” in our positive citations. </t>
+  </si>
   <si>
     <t>Var1</t>
   </si>
@@ -216,7 +219,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,6 +352,12 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -708,11 +717,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1068,11 +1079,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9377CAFA-DEE8-48EE-BE5D-365D7698C340}">
-  <dimension ref="A2:B58"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1080,17 +1091,22 @@
     <col min="1" max="1" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2" s="5" customFormat="1" ht="15.75">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="2" spans="1:2" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3">
         <v>131</v>
@@ -1098,7 +1114,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3">
         <v>81</v>
@@ -1106,7 +1122,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3">
         <v>58</v>
@@ -1114,7 +1130,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3">
         <v>50</v>
@@ -1122,7 +1138,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="3">
         <v>49</v>
@@ -1130,7 +1146,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3">
         <v>43</v>
@@ -1138,7 +1154,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3">
         <v>42</v>
@@ -1146,7 +1162,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="3">
         <v>41</v>
@@ -1154,7 +1170,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="3">
         <v>39</v>
@@ -1162,7 +1178,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="3">
         <v>34</v>
@@ -1170,7 +1186,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="3">
         <v>34</v>
@@ -1178,7 +1194,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="3">
         <v>30</v>
@@ -1186,7 +1202,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="3">
         <v>28</v>
@@ -1194,7 +1210,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="3">
         <v>27</v>
@@ -1202,7 +1218,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="3">
         <v>26</v>
@@ -1210,7 +1226,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="3">
         <v>26</v>
@@ -1218,7 +1234,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="3">
         <v>22</v>
@@ -1226,7 +1242,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="3">
         <v>22</v>
@@ -1234,7 +1250,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="3">
         <v>22</v>
@@ -1242,7 +1258,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="3">
         <v>21</v>
@@ -1250,7 +1266,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="3">
         <v>19</v>
@@ -1258,7 +1274,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="3">
         <v>17</v>
@@ -1266,7 +1282,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="3">
         <v>16</v>
@@ -1274,7 +1290,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="3">
         <v>15</v>
@@ -1282,7 +1298,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3">
         <v>14</v>
@@ -1290,7 +1306,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3">
         <v>12</v>
@@ -1298,7 +1314,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="3">
         <v>11</v>
@@ -1306,7 +1322,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="3">
         <v>10</v>
@@ -1314,7 +1330,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="3">
         <v>9</v>
@@ -1322,7 +1338,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="3">
         <v>8</v>
@@ -1330,7 +1346,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="3">
         <v>8</v>
@@ -1338,7 +1354,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="3">
         <v>8</v>
@@ -1346,7 +1362,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="3">
         <v>6</v>
@@ -1354,7 +1370,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" s="3">
         <v>6</v>
@@ -1362,7 +1378,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="3">
         <v>6</v>
@@ -1370,7 +1386,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" s="3">
         <v>5</v>
@@ -1378,7 +1394,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" s="3">
         <v>4</v>
@@ -1386,7 +1402,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" s="3">
         <v>4</v>
@@ -1394,7 +1410,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" s="3">
         <v>4</v>
@@ -1402,7 +1418,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" s="3">
         <v>4</v>
@@ -1410,7 +1426,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" s="3">
         <v>3</v>
@@ -1418,7 +1434,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" s="3">
         <v>3</v>
@@ -1426,7 +1442,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" s="3">
         <v>3</v>
@@ -1434,7 +1450,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3">
         <v>3</v>
@@ -1442,7 +1458,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" s="3">
         <v>3</v>
@@ -1450,7 +1466,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" s="3">
         <v>2</v>
@@ -1458,7 +1474,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" s="3">
         <v>2</v>
@@ -1466,7 +1482,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50" s="3">
         <v>2</v>
@@ -1474,7 +1490,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51" s="3">
         <v>1</v>
@@ -1482,7 +1498,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52" s="3">
         <v>1</v>
@@ -1490,7 +1506,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53" s="3">
         <v>1</v>
@@ -1498,7 +1514,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54" s="3">
         <v>1</v>
@@ -1506,7 +1522,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55" s="3">
         <v>1</v>
@@ -1514,7 +1530,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" s="3">
         <v>1</v>
@@ -1522,7 +1538,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57" s="3">
         <v>1</v>
@@ -1530,7 +1546,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58" s="3">
         <v>1</v>
